--- a/co_occurrence_product_by_ingredient.xlsx
+++ b/co_occurrence_product_by_ingredient.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,156 @@
       </c>
       <c r="B11" t="n">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>prove</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>boost</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>skinbrightener</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>antioxidant</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>formation</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>collagena</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>complexion</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>olay</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +830,156 @@
       </c>
       <c r="B11" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>gentle</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>calendula</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>shampoo</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>contain</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>share</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +1111,156 @@
       </c>
       <c r="B11" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pakai</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>logo</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ini</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>boleh</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tanda</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>adakah</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mmg</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>tanya</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pun</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +1392,156 @@
       </c>
       <c r="B11" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mention</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>crueltyfree</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>animalderive</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>every</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>claim</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>cleanser</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +1555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1673,156 @@
       </c>
       <c r="B11" t="n">
         <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aha</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mineral</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bha</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>exfoliation</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,6 +1954,156 @@
       </c>
       <c r="B11" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>denature</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>acid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wipe</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dry</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sensitive</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>minimalist</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +2117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,6 +2237,156 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>oil</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hair</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>alcohol</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
